--- a/guilde.xlsx
+++ b/guilde.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="foler structure" sheetId="1" r:id="rId1"/>
-    <sheet name="search" sheetId="2" r:id="rId2"/>
-    <sheet name="s.2" sheetId="3" r:id="rId3"/>
+    <sheet name="input" sheetId="5" r:id="rId2"/>
+    <sheet name="search" sheetId="2" r:id="rId3"/>
+    <sheet name="s.2" sheetId="3" r:id="rId4"/>
+    <sheet name="config" sheetId="4" r:id="rId5"/>
+    <sheet name="edit" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
   <si>
     <t>Cấu trúc thư mục</t>
   </si>
@@ -147,13 +150,166 @@
   <si>
     <t>các bước:</t>
   </si>
+  <si>
+    <t>Cấu hình</t>
+  </si>
+  <si>
+    <t>Thay đổi font chữ</t>
+  </si>
+  <si>
+    <t>Vd: thay đổi font chữ Arial 12</t>
+  </si>
+  <si>
+    <t>từ menu chọn "Config" -&gt;"Font"</t>
+  </si>
+  <si>
+    <t>nhấn nút "OK" để thiết lập font</t>
+  </si>
+  <si>
+    <t>nhấn nút "Cancel" để hủy bỏ thiết lập</t>
+  </si>
+  <si>
+    <t>chọn Font "Arial"</t>
+  </si>
+  <si>
+    <t>chọn size "12"</t>
+  </si>
+  <si>
+    <t>khởi động lại phần mềm</t>
+  </si>
+  <si>
+    <t>đóng thông báo cần khởi động lại phần mềm.</t>
+  </si>
+  <si>
+    <t>Nhập dữ liệu</t>
+  </si>
+  <si>
+    <t>nhập phiếu chi</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Minh</t>
+  </si>
+  <si>
+    <t>Đổ hòm công đức</t>
+  </si>
+  <si>
+    <t>ngày</t>
+  </si>
+  <si>
+    <t>mã phiếu</t>
+  </si>
+  <si>
+    <t>họ tên</t>
+  </si>
+  <si>
+    <t>nội dung</t>
+  </si>
+  <si>
+    <t>số tiền</t>
+  </si>
+  <si>
+    <t>ghi chú</t>
+  </si>
+  <si>
+    <t>rcpt_num_000400</t>
+  </si>
+  <si>
+    <t>ghi chú số 400</t>
+  </si>
+  <si>
+    <t>vd: nhập phiếu chi với nội dung như sau</t>
+  </si>
+  <si>
+    <t>làm sạch bảng dữ liệu (có thể bỏ qua)</t>
+  </si>
+  <si>
+    <t>điền mã phiếu vào cô</t>
+  </si>
+  <si>
+    <t>chọn tìm kiếm theo mã phiếu</t>
+  </si>
+  <si>
+    <t>nhấn nút "Search"</t>
+  </si>
+  <si>
+    <t>bảng dữ liệu đã được làm sạch</t>
+  </si>
+  <si>
+    <t>nhập dữ liệu</t>
+  </si>
+  <si>
+    <t>nhấp  đúp chuột "double click" để chọn ngày tháng</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>nhập ngày</t>
+  </si>
+  <si>
+    <t>nhập nội dung</t>
+  </si>
+  <si>
+    <t>2.4.1</t>
+  </si>
+  <si>
+    <t>nhấp  đúp chuột "double click" để chọn nội dung</t>
+  </si>
+  <si>
+    <t>2.4.2</t>
+  </si>
+  <si>
+    <t>chọn nội dung</t>
+  </si>
+  <si>
+    <t>nhập mã phiếu</t>
+  </si>
+  <si>
+    <t>nhập họ tên</t>
+  </si>
+  <si>
+    <t>nhập số tiền</t>
+  </si>
+  <si>
+    <t>nhập ghi chú</t>
+  </si>
+  <si>
+    <t>lưu dữ liệu</t>
+  </si>
+  <si>
+    <t>nhấn nút "Save"</t>
+  </si>
+  <si>
+    <t>kiểm tra lại</t>
+  </si>
+  <si>
+    <t>thay đổi nội dung chi</t>
+  </si>
+  <si>
+    <t>vào Menu -&gt;"Edit"-&gt;"Nguồn Thu"</t>
+  </si>
+  <si>
+    <t>Sửa đổi</t>
+  </si>
+  <si>
+    <t>chỉnh sửa trên bảng dữ liệu "Nội dung chi"</t>
+  </si>
+  <si>
+    <t>nhấn nút "Save" để lưu chỉnh sửa</t>
+  </si>
+  <si>
+    <t>hoặc nhấn nút "X" để hủy bỏ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -325,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -349,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -361,6 +517,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1132,6 +1309,3026 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>208476</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="37" name="Group 36"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4486275" y="1800226"/>
+          <a:ext cx="9209601" cy="4762499"/>
+          <a:chOff x="4343400" y="1800226"/>
+          <a:chExt cx="9209601" cy="4762499"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="Picture 23"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect b="29746"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4962525" y="2200275"/>
+            <a:ext cx="8590476" cy="4362450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Oval 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6143625" y="3400425"/>
+            <a:ext cx="1076325" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6486525" y="1800226"/>
+            <a:ext cx="381000" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1.1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="4" idx="2"/>
+            <a:endCxn id="3" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6677025" y="2066926"/>
+            <a:ext cx="4763" cy="1333499"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Oval 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5048250" y="3390899"/>
+            <a:ext cx="333375" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Rectangle 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4343400" y="3419475"/>
+            <a:ext cx="381000" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1.2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="17" idx="3"/>
+            <a:endCxn id="16" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4724400" y="3552825"/>
+            <a:ext cx="323850" cy="4762"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="Oval 24"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11039475" y="3733799"/>
+            <a:ext cx="561975" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="Rectangle 25"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11115675" y="1819275"/>
+            <a:ext cx="381000" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1.3</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="26" idx="2"/>
+            <a:endCxn id="25" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11306175" y="2085975"/>
+            <a:ext cx="14288" cy="1647824"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="Group 37"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4438650" y="6667501"/>
+          <a:ext cx="8353425" cy="4133850"/>
+          <a:chOff x="4295775" y="6667501"/>
+          <a:chExt cx="8353425" cy="4133850"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Picture 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:srcRect r="10188" b="33427"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4933950" y="6667501"/>
+            <a:ext cx="7715250" cy="4133850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="Oval 31"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4895850" y="9039225"/>
+            <a:ext cx="6305550" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="Rectangle 32"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4295775" y="9067801"/>
+            <a:ext cx="381000" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1.4</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="33" idx="3"/>
+            <a:endCxn id="32" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4676775" y="9201151"/>
+            <a:ext cx="219075" cy="4762"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="56" name="Group 55"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4419600" y="11401425"/>
+          <a:ext cx="7067550" cy="1981200"/>
+          <a:chOff x="4276725" y="11401425"/>
+          <a:chExt cx="7067550" cy="1981200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="39" name="Picture 38"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:srcRect t="27611" r="24824" b="40483"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4886325" y="11401425"/>
+            <a:ext cx="6457950" cy="1981200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Oval 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5581650" y="12068175"/>
+            <a:ext cx="561975" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="Rectangle 40"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4276725" y="12106276"/>
+            <a:ext cx="466725" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>2.1.1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="41" idx="3"/>
+            <a:endCxn id="40" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4743450" y="12234863"/>
+            <a:ext cx="838200" cy="4763"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="57" name="Group 56"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4391025" y="13573125"/>
+          <a:ext cx="7105650" cy="2600325"/>
+          <a:chOff x="4248150" y="13573125"/>
+          <a:chExt cx="7105650" cy="2600325"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="47" name="Picture 46"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:srcRect l="31703" t="34119" r="18071" b="30330"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4819650" y="13573125"/>
+            <a:ext cx="6534150" cy="2600325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="Oval 47"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6038850" y="13935075"/>
+            <a:ext cx="333375" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="Rectangle 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4248150" y="13954126"/>
+            <a:ext cx="485775" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>2.1.2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="50" name="Straight Arrow Connector 49"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="49" idx="3"/>
+            <a:endCxn id="48" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4733925" y="14087476"/>
+            <a:ext cx="1304925" cy="14287"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="79" name="Group 78"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4391026" y="16535400"/>
+          <a:ext cx="6953249" cy="1333500"/>
+          <a:chOff x="4391026" y="16535400"/>
+          <a:chExt cx="6953249" cy="1333500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="58" name="Picture 57"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:srcRect l="31995" t="35291" r="19389" b="46477"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5019674" y="16535400"/>
+            <a:ext cx="6324601" cy="1333500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="Oval 58"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8686800" y="16773525"/>
+            <a:ext cx="333375" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="60" name="Rectangle 59"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4391026" y="16821151"/>
+            <a:ext cx="495300" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>2.4.1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="61" name="Straight Arrow Connector 60"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="60" idx="3"/>
+            <a:endCxn id="59" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4886326" y="16940213"/>
+            <a:ext cx="3800474" cy="14288"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="78" name="Group 77"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4391025" y="17973675"/>
+          <a:ext cx="5943600" cy="1390650"/>
+          <a:chOff x="4391025" y="17973675"/>
+          <a:chExt cx="5943600" cy="1390650"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="68" name="Picture 67"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:srcRect l="32288" t="35681" r="26565" b="45306"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4981574" y="17973675"/>
+            <a:ext cx="5353051" cy="1390650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="Oval 68"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9010649" y="18211800"/>
+            <a:ext cx="333375" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="Rectangle 69"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4391025" y="18221326"/>
+            <a:ext cx="495300" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>2.4.2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="71" name="Straight Arrow Connector 70"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="70" idx="3"/>
+            <a:endCxn id="69" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4886325" y="18354676"/>
+            <a:ext cx="4124324" cy="23812"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect l="458" t="37914" r="4455" b="28680"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="19878675"/>
+          <a:ext cx="7905750" cy="1552575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="84" name="Group 83"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5924550" y="19621501"/>
+          <a:ext cx="371475" cy="1219199"/>
+          <a:chOff x="5924550" y="19621501"/>
+          <a:chExt cx="371475" cy="1219199"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="75" name="Oval 74"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5943599" y="20507325"/>
+            <a:ext cx="333375" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="Rectangle 75"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5924550" y="19621501"/>
+            <a:ext cx="371475" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>2.2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="77" name="Straight Arrow Connector 76"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="76" idx="2"/>
+            <a:endCxn id="75" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6110287" y="19888201"/>
+            <a:ext cx="1" cy="619124"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="85" name="Group 84"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6962775" y="19631026"/>
+          <a:ext cx="371475" cy="1219199"/>
+          <a:chOff x="5924550" y="19621501"/>
+          <a:chExt cx="371475" cy="1219199"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="Oval 85"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5943599" y="20507325"/>
+            <a:ext cx="333375" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="Rectangle 86"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5924550" y="19621501"/>
+            <a:ext cx="371475" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>2.3</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="88" name="Straight Arrow Connector 87"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="87" idx="2"/>
+            <a:endCxn id="86" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6110287" y="19888201"/>
+            <a:ext cx="1" cy="619124"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="89" name="Group 88"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8791575" y="19602450"/>
+          <a:ext cx="371475" cy="1219199"/>
+          <a:chOff x="5924550" y="19621501"/>
+          <a:chExt cx="371475" cy="1219199"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="Oval 89"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5943599" y="20507325"/>
+            <a:ext cx="333375" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="Rectangle 90"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5924550" y="19621501"/>
+            <a:ext cx="371475" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>2.5</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="92" name="Straight Arrow Connector 91"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="91" idx="2"/>
+            <a:endCxn id="90" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6110287" y="19888201"/>
+            <a:ext cx="1" cy="619124"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="93" name="Group 92"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9877425" y="19602450"/>
+          <a:ext cx="371475" cy="1219199"/>
+          <a:chOff x="5924550" y="19621501"/>
+          <a:chExt cx="371475" cy="1219199"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="Oval 93"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5943599" y="20507325"/>
+            <a:ext cx="333375" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="Rectangle 94"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5924550" y="19621501"/>
+            <a:ext cx="371475" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>2.6</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="96" name="Straight Arrow Connector 95"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="95" idx="2"/>
+            <a:endCxn id="94" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6110287" y="19888201"/>
+            <a:ext cx="1" cy="619124"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="97" name="Group 96"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4029075" y="19964400"/>
+          <a:ext cx="1666874" cy="333375"/>
+          <a:chOff x="5267325" y="19631025"/>
+          <a:chExt cx="1666874" cy="333375"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="Oval 97"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6600824" y="19631025"/>
+            <a:ext cx="333375" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="99" name="Rectangle 98"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5267325" y="19678651"/>
+            <a:ext cx="371475" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="100" name="Straight Arrow Connector 99"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="99" idx="3"/>
+            <a:endCxn id="98" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5638800" y="19797713"/>
+            <a:ext cx="962024" cy="14288"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>303726</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="125" name="Group 124"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3333750" y="21440775"/>
+          <a:ext cx="9238176" cy="3505200"/>
+          <a:chOff x="3333750" y="21440775"/>
+          <a:chExt cx="9238176" cy="3505200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="116" name="Picture 115"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:srcRect b="49840"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3981450" y="21831300"/>
+            <a:ext cx="8590476" cy="3114675"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="105" name="Group 104"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3343275" y="21440775"/>
+            <a:ext cx="7258050" cy="2266948"/>
+            <a:chOff x="4343400" y="1800226"/>
+            <a:chExt cx="7258050" cy="2266948"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="107" name="Oval 106"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6143625" y="3400425"/>
+              <a:ext cx="1076325" cy="333375"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="108" name="Rectangle 107"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6486525" y="1800226"/>
+              <a:ext cx="381000" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>4.1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="109" name="Straight Arrow Connector 108"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="108" idx="2"/>
+              <a:endCxn id="107" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6677025" y="2066926"/>
+              <a:ext cx="4763" cy="1333499"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="110" name="Oval 109"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5048250" y="3390899"/>
+              <a:ext cx="333375" cy="333375"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="111" name="Rectangle 110"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4343400" y="3419475"/>
+              <a:ext cx="381000" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>4.2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="112" name="Straight Arrow Connector 111"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="111" idx="3"/>
+              <a:endCxn id="110" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4724400" y="3552825"/>
+              <a:ext cx="323850" cy="4762"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="113" name="Oval 112"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11039475" y="3733799"/>
+              <a:ext cx="561975" cy="333375"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="114" name="Rectangle 113"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11115675" y="1819275"/>
+              <a:ext cx="381000" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>4.3</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="115" name="Straight Arrow Connector 114"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="114" idx="2"/>
+              <a:endCxn id="113" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11306175" y="2085975"/>
+              <a:ext cx="14288" cy="1647824"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="120" name="Group 119"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3333750" y="24203025"/>
+            <a:ext cx="8934450" cy="333375"/>
+            <a:chOff x="3333750" y="24203025"/>
+            <a:chExt cx="8934450" cy="333375"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="117" name="Oval 116"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4352925" y="24203025"/>
+              <a:ext cx="7915275" cy="333375"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="118" name="Rectangle 117"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3333750" y="24241126"/>
+              <a:ext cx="381000" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                  <a:ln w="0"/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>4.4</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="119" name="Straight Arrow Connector 118"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="118" idx="3"/>
+              <a:endCxn id="117" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="3714750" y="24369713"/>
+              <a:ext cx="638175" cy="4763"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -2328,7 +5525,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4151,6 +7348,1655 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="Group 25"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5029200" y="533400"/>
+          <a:ext cx="5133975" cy="1790700"/>
+          <a:chOff x="5029200" y="533400"/>
+          <a:chExt cx="5133975" cy="1790700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Picture 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect l="6223" t="10288" r="58267" b="65230"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5543550" y="533400"/>
+            <a:ext cx="4619625" cy="1790700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Oval 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6962775" y="971549"/>
+            <a:ext cx="361950" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5029200" y="1028700"/>
+            <a:ext cx="247650" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="4" idx="3"/>
+            <a:endCxn id="3" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5276850" y="1138237"/>
+            <a:ext cx="1685925" cy="23813"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>170934</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104357</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="Group 26"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5048250" y="2114550"/>
+          <a:ext cx="4647684" cy="3704807"/>
+          <a:chOff x="5048250" y="2114550"/>
+          <a:chExt cx="4647684" cy="3704807"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="Picture 9"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5572125" y="2476500"/>
+            <a:ext cx="4123809" cy="3342857"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Oval 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5648325" y="3152775"/>
+            <a:ext cx="361950" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5048250" y="3181351"/>
+            <a:ext cx="247650" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="12" idx="3"/>
+            <a:endCxn id="11" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5295900" y="3314701"/>
+            <a:ext cx="352425" cy="4762"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Oval 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8277225" y="3362325"/>
+            <a:ext cx="361950" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Rectangle 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8324850" y="2114551"/>
+            <a:ext cx="247650" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="17" idx="2"/>
+            <a:endCxn id="16" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8448675" y="2381251"/>
+            <a:ext cx="9525" cy="981074"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Oval 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9039225" y="2990849"/>
+            <a:ext cx="361950" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="Rectangle 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9086850" y="2114550"/>
+            <a:ext cx="247650" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>4</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="23" idx="2"/>
+            <a:endCxn id="22" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9210675" y="2381250"/>
+            <a:ext cx="9525" cy="609599"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="Group 33"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5086350" y="6153150"/>
+          <a:ext cx="5676900" cy="2781300"/>
+          <a:chOff x="5086350" y="6153150"/>
+          <a:chExt cx="5676900" cy="2781300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="28" name="Picture 27"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:srcRect l="29139" t="25003" r="31177" b="36972"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5600700" y="6153150"/>
+            <a:ext cx="5162550" cy="2781300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="Oval 28"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9725025" y="8420100"/>
+            <a:ext cx="361950" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="Rectangle 29"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5086350" y="8448676"/>
+            <a:ext cx="247650" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>5</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="30" idx="3"/>
+            <a:endCxn id="29" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5334000" y="8582026"/>
+            <a:ext cx="4391025" cy="4762"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="30531" t="2865" r="34105" b="80206"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4638675" y="742951"/>
+          <a:ext cx="4600575" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="32873" t="18233" r="23782" b="42311"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4705350" y="2381250"/>
+          <a:ext cx="5638800" cy="2886075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Group 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4143375" y="1333500"/>
+          <a:ext cx="1743075" cy="333375"/>
+          <a:chOff x="4143375" y="1333500"/>
+          <a:chExt cx="1743075" cy="333375"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Oval 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5019674" y="1333500"/>
+            <a:ext cx="866776" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4143375" y="1362076"/>
+            <a:ext cx="266700" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="5" idx="3"/>
+            <a:endCxn id="4" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4410075" y="1495426"/>
+            <a:ext cx="609599" cy="4762"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Group 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4114800" y="3076575"/>
+          <a:ext cx="2752725" cy="333375"/>
+          <a:chOff x="4124325" y="1381125"/>
+          <a:chExt cx="2752725" cy="333375"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Oval 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6010274" y="1381125"/>
+            <a:ext cx="866776" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Rectangle 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4124325" y="1409701"/>
+            <a:ext cx="266700" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="16" idx="3"/>
+            <a:endCxn id="15" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4391025" y="1543051"/>
+            <a:ext cx="1619249" cy="4762"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="Group 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6362699" y="2095501"/>
+          <a:ext cx="866776" cy="990599"/>
+          <a:chOff x="6010274" y="723901"/>
+          <a:chExt cx="866776" cy="990599"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Oval 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6010274" y="1381125"/>
+            <a:ext cx="866776" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Rectangle 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6324600" y="723901"/>
+            <a:ext cx="266700" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="22" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6457950" y="990601"/>
+            <a:ext cx="0" cy="371474"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="Group 26"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9867900" y="2085975"/>
+          <a:ext cx="323850" cy="733424"/>
+          <a:chOff x="6353174" y="714376"/>
+          <a:chExt cx="323850" cy="733424"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="Oval 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6353174" y="1114425"/>
+            <a:ext cx="323850" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="Rectangle 28"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6381750" y="714376"/>
+            <a:ext cx="266700" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>4</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="29" idx="2"/>
+            <a:endCxn id="28" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6515099" y="981076"/>
+            <a:ext cx="1" cy="133349"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4970,6 +9816,278 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I115"/>
+  <sheetViews>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="25"/>
+      <c r="E6" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="31">
+        <v>41428</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="25"/>
+      <c r="E7" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="29"/>
+      <c r="E8" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="29"/>
+      <c r="E9" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="29"/>
+      <c r="E10" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="30">
+        <v>1234000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="30"/>
+      <c r="E11" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="29"/>
+    </row>
+    <row r="13" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="28">
+        <v>1</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>1.2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="28">
+        <v>1.3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="28">
+        <v>1.4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>2.1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="31">
+        <v>41428</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>2.4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" t="s">
+        <v>77</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>2.5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" s="30">
+        <v>1234000</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>2.6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5980,12 +11098,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6584,4 +11702,168 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/guilde.xlsx
+++ b/guilde.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tmp\github\accounting\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="foler structure" sheetId="1" r:id="rId1"/>
@@ -18,8 +13,9 @@
     <sheet name="s.2" sheetId="3" r:id="rId4"/>
     <sheet name="config" sheetId="4" r:id="rId5"/>
     <sheet name="edit" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="103">
   <si>
     <t>Cấu trúc thư mục</t>
   </si>
@@ -302,6 +298,42 @@
   </si>
   <si>
     <t>hoặc nhấn nút "X" để hủy bỏ</t>
+  </si>
+  <si>
+    <t>mã phiếu thu</t>
+  </si>
+  <si>
+    <t>mẫ phiếu chi</t>
+  </si>
+  <si>
+    <t>rcpt_20180102_001</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>rcpt_yyyyMMdd_nnn</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>meaning</t>
+  </si>
+  <si>
+    <t>phiếu thu số 1 ngày 2/1/2018</t>
+  </si>
+  <si>
+    <t>lương</t>
+  </si>
+  <si>
+    <t>sala_xxx</t>
+  </si>
+  <si>
+    <t>inpm_xxx</t>
+  </si>
+  <si>
+    <t>expm_xxx</t>
   </si>
 </sst>
 </file>
@@ -9040,7 +9072,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9075,7 +9107,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9252,7 +9284,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9818,7 +9850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I115"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
+    <sheetView topLeftCell="A101" workbookViewId="0">
       <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
@@ -11708,7 +11740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -11803,7 +11835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -11866,4 +11898,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>